--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_TongHopKinhPhiDuocCap.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_TongHopKinhPhiDuocCap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\BQP\14-09-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-anhdnt\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>&lt;#if(&lt;#dt.depth&gt;="0";1;)&gt;</t>
   </si>
@@ -131,9 +131,6 @@
     <t>VNĐ</t>
   </si>
   <si>
-    <t xml:space="preserve">THỦ TRƯỞNG ĐƠN VỊ </t>
-  </si>
-  <si>
     <t>Ngày …. tháng …. năm ….</t>
   </si>
   <si>
@@ -164,15 +161,6 @@
     <t>Đơn vị tính: USD/VNĐ</t>
   </si>
   <si>
-    <t>ĐƠN VỊ CẤP TRÊN</t>
-  </si>
-  <si>
-    <t>ĐƠN VỊ</t>
-  </si>
-  <si>
-    <t>Đơn vị tối mật</t>
-  </si>
-  <si>
     <t>Nội dung</t>
   </si>
   <si>
@@ -197,12 +185,6 @@
     <t xml:space="preserve">Thuyết minh báo cáo: </t>
   </si>
   <si>
-    <t>NGƯỜI LẬP</t>
-  </si>
-  <si>
-    <t>TRƯỞNG PHÒNG BAN TÀI CHÍNH</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -234,9 +216,6 @@
   </si>
   <si>
     <t>&lt;#dt.HopDongVND&gt;&lt;#AltFormat&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BÁO CÁO ĐỐI CHIẾU TỔNG HỢP SỐ LIỆU KINH PHÍ THỰC HIỆN CẤP PHÁT THANH TOÁN TOÀN QUÂN </t>
   </si>
   <si>
     <t>3 = 5 + 7</t>
@@ -269,6 +248,15 @@
       </rPr>
       <t xml:space="preserve"> Quý &lt;#TuNgay&gt; - Năm &lt;#DenNgay&gt;</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;#tenBaoCao&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;#dvCapTren&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;#dvCapDuoi&gt;</t>
   </si>
 </sst>
 </file>
@@ -542,7 +530,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -616,59 +604,62 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -687,6 +678,656 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2462894</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038204</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2462894" y="6939642"/>
+          <a:ext cx="2072346" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#ThuaLenh1&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2449287</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1024597</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2449287" y="7225393"/>
+          <a:ext cx="2072346" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ChucDanh1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2414512</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>989822</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2414512" y="7438572"/>
+          <a:ext cx="2067810" cy="625626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#Ten1&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>721178</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>766060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9463011" y="6977440"/>
+          <a:ext cx="2066299" cy="473226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#ThuaLenh2&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>768782</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9459686" y="7241721"/>
+          <a:ext cx="2072346" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ChucDanh2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>693964</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>738846</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>197756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9435797" y="7435547"/>
+          <a:ext cx="2066299" cy="625626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#Ten2&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>973667</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>908504</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15832667" y="6974417"/>
+          <a:ext cx="2062087" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#ThuaLenh3&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1016001</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>940579</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15875001" y="7260167"/>
+          <a:ext cx="2051828" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ChucDanh3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>940578</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>205315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15875000" y="7440083"/>
+          <a:ext cx="2051828" cy="628649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>&lt;#Ten3&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,54 +1629,52 @@
         <v>25</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
+        <v>69</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:18" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
+        <v>70</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="B3" s="17"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -1068,11 +1707,11 @@
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
-      <c r="P4" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="P4" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="20"/>
@@ -1095,69 +1734,69 @@
     </row>
     <row r="6" spans="1:18" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="35" t="s">
+      <c r="B6" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="52"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="49"/>
     </row>
     <row r="7" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="42" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="42" t="s">
+      <c r="H7" s="38"/>
+      <c r="I7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
     </row>
     <row r="8" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="25" t="s">
         <v>30</v>
       </c>
@@ -1209,7 +1848,7 @@
     </row>
     <row r="9" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="32">
         <v>1</v>
       </c>
@@ -1217,10 +1856,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G9" s="32">
         <v>5</v>
@@ -1235,10 +1874,10 @@
         <v>8</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="M9" s="32">
         <v>11</v>
@@ -1253,10 +1892,10 @@
         <v>14</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.25">
@@ -1264,55 +1903,55 @@
         <v>0</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>64</v>
-      </c>
       <c r="R10" s="31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
@@ -1363,11 +2002,15 @@
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -1380,7 +2023,9 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="I14" s="19"/>
@@ -1388,51 +2033,43 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="P14" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
+      <c r="P14" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>54</v>
-      </c>
+      <c r="B15" s="28"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="P15" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+        <v>50</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -1714,10 +2351,7 @@
       <c r="R30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:P6"/>
+  <mergeCells count="19">
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="C2:R2"/>
@@ -1733,6 +2367,10 @@
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:P6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -1740,6 +2378,7 @@
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"&amp;12Tờ: &lt;#To&gt;- Trang: &amp;P/&amp;N</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
